--- a/bin/spreadsheet1.xlsx
+++ b/bin/spreadsheet1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>name</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>aa7s@xyzmail.com</t>
-  </si>
-  <si>
-    <t>cn[]</t>
   </si>
 </sst>
 </file>
@@ -415,14 +412,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15">
-      <c r="D15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
